--- a/Farmrobo_Wassersensor_Abhängigkeitsdaten.xlsx
+++ b/Farmrobo_Wassersensor_Abhängigkeitsdaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\Projektarbeit_Embedded_C\Farmrobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4222B260-158E-4C79-99B3-151959862EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6CD2E-1A91-4E8E-947E-42D5E035A140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F2613026-1A3B-480A-BD88-81CA21B6B8C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2613026-1A3B-480A-BD88-81CA21B6B8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="14">
   <si>
     <t>Wassersensor</t>
   </si>
@@ -86,15 +86,25 @@
   <si>
     <t>Label</t>
   </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,15 +130,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -255,10 +271,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.150060569351908E-2"/>
+                  <c:y val="-1.2975769333181179E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3331,8 +3353,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{5A06609C-08AB-42A7-8B9C-17CA930C6F8C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12" unboundColumnsRight="1">
-    <queryTableFields count="11">
+  <queryTableRefresh nextId="13" unboundColumnsRight="2">
+    <queryTableFields count="12">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
@@ -3344,26 +3366,30 @@
       <queryTableField id="9" name="Column9" tableColumnId="9"/>
       <queryTableField id="10" name="Column10" tableColumnId="10"/>
       <queryTableField id="11" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E664033-A785-4669-96ED-AAD1A1F43F2C}" name="Messdaten__1" displayName="Messdaten__1" ref="A1:K239" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K239" xr:uid="{32237F06-8837-4F97-BA21-B95363C22D56}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E664033-A785-4669-96ED-AAD1A1F43F2C}" name="Messdaten__1" displayName="Messdaten__1" ref="A1:L239" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L239" xr:uid="{32237F06-8837-4F97-BA21-B95363C22D56}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6922ECFD-E32A-4CCB-BA2C-360E24B4212B}" uniqueName="1" name="Index" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AB1E3504-EF91-41AB-80B2-068C426D848A}" uniqueName="2" name="Zeit" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AB1E3504-EF91-41AB-80B2-068C426D848A}" uniqueName="2" name="Zeit" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{531EC1FA-9AD0-4119-84DD-CA17F940591D}" uniqueName="3" name="X" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{63F691ED-BE6D-413A-9507-2DE7D2DE1904}" uniqueName="4" name="Y" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{608B64F9-55DB-47BD-A8FD-6025F5FE274B}" uniqueName="5" name="Z" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{DEAA8615-FBC3-499C-B459-70E0868CCA27}" uniqueName="6" name="Sensor" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DEAA8615-FBC3-499C-B459-70E0868CCA27}" uniqueName="6" name="Sensor" queryTableFieldId="6" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{8762245B-05D1-457E-B144-4BA202A9B620}" uniqueName="7" name="Wert" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{0D6C6E63-AA59-4325-B1D9-E80B222B3534}" uniqueName="8" name="Wert_2" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{045C6845-2030-4B32-A784-172B0EDF1F2E}" uniqueName="9" name="Wert_3" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{B385AAB1-5625-4585-8FA6-98F58940DAA3}" uniqueName="10" name="Wert_4" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{9EF0EFFE-E1AC-47FA-8088-416D1EE34921}" uniqueName="11" name="Label" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{0D6C6E63-AA59-4325-B1D9-E80B222B3534}" uniqueName="8" name="Wert_2" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{045C6845-2030-4B32-A784-172B0EDF1F2E}" uniqueName="9" name="Wert_3" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{B385AAB1-5625-4585-8FA6-98F58940DAA3}" uniqueName="10" name="Wert_4" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{9EF0EFFE-E1AC-47FA-8088-416D1EE34921}" uniqueName="11" name="Label" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{0F4D1D97-8FB8-4BBA-99B5-4AFFAEC91078}" uniqueName="12" name="Spalte1" queryTableFieldId="12" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3666,23 +3692,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97DF6C0-1042-4642-89E8-120C0EC26313}">
-  <dimension ref="A1:K239"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L32:L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3716,8 +3742,11 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3751,8 +3780,12 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="3">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>11.072000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3786,8 +3819,12 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>11.072000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3821,8 +3858,12 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>11.072000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3856,8 +3897,12 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>10.832799999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3891,8 +3936,12 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>10.832799999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3926,8 +3975,12 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>11.072000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3961,8 +4014,12 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>11.072000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3996,8 +4053,12 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>11.072000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4031,8 +4092,12 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>11.072000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4066,8 +4131,12 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>10.832799999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4101,8 +4170,12 @@
       <c r="K12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>17.769599999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4136,8 +4209,12 @@
       <c r="K13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>17.769599999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4171,8 +4248,12 @@
       <c r="K14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>17.769599999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4206,8 +4287,12 @@
       <c r="K15" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>18.008800000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4241,8 +4326,12 @@
       <c r="K16" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>18.008800000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4276,8 +4365,12 @@
       <c r="K17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>17.769599999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4311,8 +4404,12 @@
       <c r="K18" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>17.769599999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4346,8 +4443,12 @@
       <c r="K19" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>17.769599999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4381,8 +4482,12 @@
       <c r="K20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>17.769599999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4416,8 +4521,12 @@
       <c r="K21" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>18.008800000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4451,8 +4560,12 @@
       <c r="K22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.8760000000000048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4486,8 +4599,12 @@
       <c r="K23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.8760000000000048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4521,8 +4638,12 @@
       <c r="K24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>10.593600000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4556,8 +4677,12 @@
       <c r="K25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.8760000000000048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4591,8 +4716,12 @@
       <c r="K26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.8760000000000048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4626,8 +4755,12 @@
       <c r="K27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.8760000000000048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4661,8 +4794,12 @@
       <c r="K28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.6367999999999938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4696,8 +4833,12 @@
       <c r="K29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>10.593600000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4731,8 +4872,12 @@
       <c r="K30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.8760000000000048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4766,8 +4911,12 @@
       <c r="K31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>9.8760000000000048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4801,8 +4950,12 @@
       <c r="K32" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4836,8 +4989,12 @@
       <c r="K33" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4871,8 +5028,12 @@
       <c r="K34" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4906,8 +5067,12 @@
       <c r="K35" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4941,8 +5106,12 @@
       <c r="K36" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4976,8 +5145,12 @@
       <c r="K37" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5011,8 +5184,12 @@
       <c r="K38" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5046,8 +5223,12 @@
       <c r="K39" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5081,8 +5262,12 @@
       <c r="K40" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5116,8 +5301,12 @@
       <c r="K41" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>99.815200000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5151,8 +5340,12 @@
       <c r="K42" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.180800000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5186,8 +5379,12 @@
       <c r="K43" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5221,8 +5418,12 @@
       <c r="K44" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5256,8 +5457,12 @@
       <c r="K45" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5291,8 +5496,12 @@
       <c r="K46" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5326,8 +5535,12 @@
       <c r="K47" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5361,8 +5574,12 @@
       <c r="K48" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5396,8 +5613,12 @@
       <c r="K49" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5431,8 +5652,12 @@
       <c r="K50" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.898399999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5466,8 +5691,12 @@
       <c r="K51" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5501,8 +5730,12 @@
       <c r="K52" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5536,8 +5769,12 @@
       <c r="K53" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.180800000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5571,8 +5808,12 @@
       <c r="K54" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>85.702399999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5606,8 +5847,12 @@
       <c r="K55" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>85.702399999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5641,8 +5886,12 @@
       <c r="K56" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.180800000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5676,8 +5925,12 @@
       <c r="K57" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5711,8 +5964,12 @@
       <c r="K58" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5746,8 +6003,12 @@
       <c r="K59" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5781,8 +6042,12 @@
       <c r="K60" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5816,8 +6081,12 @@
       <c r="K61" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5851,8 +6120,12 @@
       <c r="K62" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5886,8 +6159,12 @@
       <c r="K63" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5921,8 +6198,12 @@
       <c r="K64" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5956,8 +6237,12 @@
       <c r="K65" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5991,8 +6276,12 @@
       <c r="K66" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6026,8 +6315,12 @@
       <c r="K67" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6061,8 +6354,12 @@
       <c r="K68" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6096,8 +6393,12 @@
       <c r="K69" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6131,8 +6432,12 @@
       <c r="K70" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6166,8 +6471,12 @@
       <c r="K71" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>87.855199999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6201,8 +6510,12 @@
       <c r="K72" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6236,8 +6549,12 @@
       <c r="K73" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6271,8 +6588,12 @@
       <c r="K74" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.659199999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6306,8 +6627,12 @@
       <c r="K75" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6341,8 +6666,12 @@
       <c r="K76" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6376,8 +6705,12 @@
       <c r="K77" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6411,8 +6744,12 @@
       <c r="K78" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6446,8 +6783,12 @@
       <c r="K79" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6481,8 +6822,12 @@
       <c r="K80" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6516,8 +6861,12 @@
       <c r="K81" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>86.42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6551,8 +6900,12 @@
       <c r="K82" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>37.623199999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6586,8 +6939,12 @@
       <c r="K83" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>37.384000000000015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6621,8 +6978,12 @@
       <c r="K84" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>37.384000000000015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6656,8 +7017,12 @@
       <c r="K85" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>37.623199999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6691,8 +7056,12 @@
       <c r="K86" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>37.384000000000015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6726,8 +7095,12 @@
       <c r="K87" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>37.862400000000008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6761,8 +7134,12 @@
       <c r="K88" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>37.384000000000015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6796,8 +7173,12 @@
       <c r="K89" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>36.66640000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6831,8 +7212,12 @@
       <c r="K90" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>36.905599999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6866,8 +7251,12 @@
       <c r="K91" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>36.427199999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6901,8 +7290,12 @@
       <c r="K92" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.424000000000007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6936,8 +7329,12 @@
       <c r="K93" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.184799999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6971,8 +7368,12 @@
       <c r="K94" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>26.380799999999994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7006,8 +7407,12 @@
       <c r="K95" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.424000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7041,8 +7446,12 @@
       <c r="K96" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>26.141600000000011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7076,8 +7485,12 @@
       <c r="K97" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.424000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7111,8 +7524,12 @@
       <c r="K98" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.424000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7146,8 +7563,12 @@
       <c r="K99" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.424000000000007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7181,8 +7602,12 @@
       <c r="K100" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.184799999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7216,8 +7641,12 @@
       <c r="K101" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>25.424000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7251,8 +7680,12 @@
       <c r="K102" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.988799999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7286,8 +7719,12 @@
       <c r="K103" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>24.228000000000009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7321,8 +7758,12 @@
       <c r="K104" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>24.706400000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7356,8 +7797,12 @@
       <c r="K105" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.988799999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7391,8 +7836,12 @@
       <c r="K106" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>24.228000000000009</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7426,8 +7875,12 @@
       <c r="K107" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>24.228000000000009</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7461,8 +7914,12 @@
       <c r="K108" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.988799999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7496,8 +7953,12 @@
       <c r="K109" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.988799999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7531,8 +7992,12 @@
       <c r="K110" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.988799999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7566,8 +8031,12 @@
       <c r="K111" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.988799999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7601,8 +8070,12 @@
       <c r="K112" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.314400000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7636,8 +8109,12 @@
       <c r="K113" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.553600000000017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7671,8 +8148,12 @@
       <c r="K114" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.314400000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7706,8 +8187,12 @@
       <c r="K115" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.271199999999993</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7741,8 +8226,12 @@
       <c r="K116" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.553600000000017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7776,8 +8265,12 @@
       <c r="K117" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>23.271199999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7811,8 +8304,12 @@
       <c r="K118" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.314400000000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7846,8 +8343,12 @@
       <c r="K119" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.314400000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7881,8 +8382,12 @@
       <c r="K120" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.553600000000017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7916,8 +8421,12 @@
       <c r="K121" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>22.314400000000006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7951,8 +8460,12 @@
       <c r="K122" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.470400000000012</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7986,8 +8499,12 @@
       <c r="K123" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.470400000000012</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8021,8 +8538,12 @@
       <c r="K124" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.470400000000012</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8056,8 +8577,12 @@
       <c r="K125" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.470400000000012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8091,8 +8616,12 @@
       <c r="K126" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.470400000000012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8126,8 +8655,12 @@
       <c r="K127" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8161,8 +8694,12 @@
       <c r="K128" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8196,8 +8733,12 @@
       <c r="K129" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.470400000000012</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8231,8 +8772,12 @@
       <c r="K130" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.470400000000012</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8266,8 +8811,12 @@
       <c r="K131" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>36.188000000000017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8301,8 +8850,12 @@
       <c r="K132" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>36.188000000000017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8336,8 +8889,12 @@
       <c r="K133" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8371,8 +8928,12 @@
       <c r="K134" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8406,8 +8967,12 @@
       <c r="K135" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8441,8 +9006,12 @@
       <c r="K136" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8476,8 +9045,12 @@
       <c r="K137" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8511,8 +9084,12 @@
       <c r="K138" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8546,8 +9123,12 @@
       <c r="K139" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8581,8 +9162,12 @@
       <c r="K140" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8616,8 +9201,12 @@
       <c r="K141" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>36.188000000000017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8651,8 +9240,12 @@
       <c r="K142" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8686,8 +9279,12 @@
       <c r="K143" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8721,8 +9318,12 @@
       <c r="K144" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8756,8 +9357,12 @@
       <c r="K145" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8791,8 +9396,12 @@
       <c r="K146" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8826,8 +9435,12 @@
       <c r="K147" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8861,8 +9474,12 @@
       <c r="K148" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8896,8 +9513,12 @@
       <c r="K149" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8931,8 +9552,12 @@
       <c r="K150" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8966,8 +9591,12 @@
       <c r="K151" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9001,8 +9630,12 @@
       <c r="K152" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9036,8 +9669,12 @@
       <c r="K153" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9071,8 +9708,12 @@
       <c r="K154" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9106,8 +9747,12 @@
       <c r="K155" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9141,8 +9786,12 @@
       <c r="K156" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9176,8 +9825,12 @@
       <c r="K157" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9211,8 +9864,12 @@
       <c r="K158" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9246,8 +9903,12 @@
       <c r="K159" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9281,8 +9942,12 @@
       <c r="K160" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9316,8 +9981,12 @@
       <c r="K161" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9351,8 +10020,12 @@
       <c r="K162" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9386,8 +10059,12 @@
       <c r="K163" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9421,8 +10098,12 @@
       <c r="K164" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9456,8 +10137,12 @@
       <c r="K165" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9491,8 +10176,12 @@
       <c r="K166" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9526,8 +10215,12 @@
       <c r="K167" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9561,8 +10254,12 @@
       <c r="K168" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9596,8 +10293,12 @@
       <c r="K169" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9631,8 +10332,12 @@
       <c r="K170" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.709599999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9666,8 +10371,12 @@
       <c r="K171" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>35.948800000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9701,8 +10410,12 @@
       <c r="K172" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9736,8 +10449,12 @@
       <c r="K173" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9771,8 +10488,12 @@
       <c r="K174" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9806,8 +10527,12 @@
       <c r="K175" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9841,8 +10566,12 @@
       <c r="K176" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9876,8 +10605,12 @@
       <c r="K177" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.712800000000016</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9911,8 +10644,12 @@
       <c r="K178" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9946,8 +10683,12 @@
       <c r="K179" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.712800000000016</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9981,8 +10722,12 @@
       <c r="K180" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.712800000000016</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10016,8 +10761,12 @@
       <c r="K181" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10051,8 +10800,12 @@
       <c r="K182" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.712800000000016</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10086,8 +10839,12 @@
       <c r="K183" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10121,8 +10878,12 @@
       <c r="K184" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10156,8 +10917,12 @@
       <c r="K185" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.712800000000016</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10191,8 +10956,12 @@
       <c r="K186" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10226,8 +10995,12 @@
       <c r="K187" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10261,8 +11034,12 @@
       <c r="K188" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10296,8 +11073,12 @@
       <c r="K189" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.951999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10331,8 +11112,12 @@
       <c r="K190" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.712800000000016</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10366,8 +11151,12 @@
       <c r="K191" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>46.712800000000016</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10401,8 +11190,12 @@
       <c r="K192" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10436,8 +11229,12 @@
       <c r="K193" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10471,8 +11268,12 @@
       <c r="K194" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10506,8 +11307,12 @@
       <c r="K195" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10541,8 +11346,12 @@
       <c r="K196" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10576,8 +11385,12 @@
       <c r="K197" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10611,8 +11424,12 @@
       <c r="K198" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10646,8 +11463,12 @@
       <c r="K199" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10681,8 +11502,12 @@
       <c r="K200" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10716,8 +11541,12 @@
       <c r="K201" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10751,8 +11580,12 @@
       <c r="K202" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10786,8 +11619,12 @@
       <c r="K203" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10821,8 +11658,12 @@
       <c r="K204" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10856,8 +11697,12 @@
       <c r="K205" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>48.147999999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10891,8 +11736,12 @@
       <c r="K206" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10926,8 +11775,12 @@
       <c r="K207" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10961,8 +11814,12 @@
       <c r="K208" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10996,8 +11853,12 @@
       <c r="K209" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11031,8 +11892,12 @@
       <c r="K210" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11066,8 +11931,12 @@
       <c r="K211" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11101,8 +11970,12 @@
       <c r="K212" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11136,8 +12009,12 @@
       <c r="K213" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11171,8 +12048,12 @@
       <c r="K214" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>48.147999999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11206,8 +12087,12 @@
       <c r="K215" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11241,8 +12126,12 @@
       <c r="K216" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11276,8 +12165,12 @@
       <c r="K217" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11311,8 +12204,12 @@
       <c r="K218" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11346,8 +12243,12 @@
       <c r="K219" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>48.147999999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11381,8 +12282,12 @@
       <c r="K220" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.430399999999992</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -11416,8 +12321,12 @@
       <c r="K221" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>47.669600000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -11451,8 +12360,12 @@
       <c r="K222" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.041600000000017</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11486,8 +12399,12 @@
       <c r="K223" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.041600000000017</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11521,8 +12438,12 @@
       <c r="K224" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.041600000000017</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11556,8 +12477,12 @@
       <c r="K225" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>55.802400000000006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11591,8 +12516,12 @@
       <c r="K226" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.041600000000017</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11626,8 +12555,12 @@
       <c r="K227" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.041600000000017</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11661,8 +12594,12 @@
       <c r="K228" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>55.802400000000006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11696,8 +12633,12 @@
       <c r="K229" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.52000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11731,8 +12672,12 @@
       <c r="K230" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.041600000000017</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11766,8 +12711,12 @@
       <c r="K231" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>55.802400000000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11801,8 +12750,12 @@
       <c r="K232" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.998400000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11836,8 +12789,12 @@
       <c r="K233" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.998400000000004</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11871,8 +12828,12 @@
       <c r="K234" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>57.716000000000008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11906,8 +12867,12 @@
       <c r="K235" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>57.716000000000008</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11941,8 +12906,12 @@
       <c r="K236" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>56.998400000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11976,8 +12945,12 @@
       <c r="K237" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>57.716000000000008</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12011,8 +12984,12 @@
       <c r="K238" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>57.716000000000008</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12046,11 +13023,16 @@
       <c r="K239" s="2">
         <v>80</v>
       </c>
+      <c r="L239" s="2">
+        <f xml:space="preserve"> -0.2392* Messdaten__1[[#This Row],[Wert]] + 212</f>
+        <v>57.476799999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12059,11 +13041,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A92C7A2-C083-4DA8-8E45-13375DEC8AFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
